--- a/Final_Figures_and_Sheets_Superset/pc_summary_statistics.xlsx
+++ b/Final_Figures_and_Sheets_Superset/pc_summary_statistics.xlsx
@@ -619,37 +619,37 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E4" t="n">
-        <v>0.002335629571444762</v>
+        <v>0.0001896700925827139</v>
       </c>
       <c r="F4" t="n">
-        <v>6.129253702069236e-05</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.003535543165679396</v>
+        <v>0.0003285182370295535</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0.009223719254269153</v>
+        <v>0.0005690102777481419</v>
       </c>
       <c r="J4" t="n">
-        <v>0.6045889330537597</v>
+        <v>0.04909701448755735</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>0.605x</t>
+          <t>0.049x</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>0.01892790679040331</v>
+        <v>0.001537083567199424</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>0.019x</t>
+          <t>0.002x</t>
         </is>
       </c>
     </row>
@@ -671,37 +671,37 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E5" t="n">
-        <v>0.001714836996325409</v>
+        <v>0.002084510491973922</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0008265489689747011</v>
+        <v>0.001770259869524957</v>
       </c>
       <c r="G5" t="n">
-        <v>0.001775134048572578</v>
+        <v>0.001926021526344725</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>0.0001263573222030195</v>
       </c>
       <c r="I5" t="n">
         <v>0.004387668199625277</v>
       </c>
       <c r="J5" t="n">
-        <v>0.7342076060737036</v>
+        <v>10.99019072321526</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>0.734x</t>
+          <t>10.990x</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>0.01389701313256821</v>
+        <v>0.01689284156104172</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>0.014x</t>
+          <t>0.017x</t>
         </is>
       </c>
     </row>
@@ -722,37 +722,37 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="E6" t="n">
-        <v>0.001058865745010365</v>
+        <v>0.0008717382153061114</v>
       </c>
       <c r="F6" t="n">
-        <v>6.715629225806471e-06</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.002149020615919011</v>
+        <v>0.001547896233658058</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0.009223719254269153</v>
+        <v>0.004387668199625277</v>
       </c>
       <c r="J6" t="n">
-        <v>0.61747311684978</v>
+        <v>0.4181980463339483</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>0.617x</t>
+          <t>0.418x</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>0.008581032013869219</v>
+        <v>0.007064553337856572</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>0.009x</t>
+          <t>0.007x</t>
         </is>
       </c>
     </row>
@@ -791,7 +791,7 @@
         <v>2.421027674426409e-08</v>
       </c>
       <c r="J7" t="n">
-        <v>1.403571043837316e-05</v>
+        <v>1.704861933219134e-05</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -1233,37 +1233,37 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E16" t="n">
-        <v>0.01258837664296382</v>
+        <v>0.001965914872858547</v>
       </c>
       <c r="F16" t="n">
-        <v>0.004323886639676113</v>
+        <v>0.0009513140581101746</v>
       </c>
       <c r="G16" t="n">
-        <v>0.02708915851684023</v>
+        <v>0.002129071249357088</v>
       </c>
       <c r="H16" t="n">
-        <v>7.355104442483083e-05</v>
+        <v>0.0005339155935228867</v>
       </c>
       <c r="I16" t="n">
-        <v>0.08418846937176876</v>
+        <v>0.004412514966942579</v>
       </c>
       <c r="J16" t="n">
-        <v>0.4657142554293283</v>
+        <v>0.07273015474656162</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>0.466x</t>
+          <t>0.073x</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>0.08199771998803869</v>
+        <v>0.01280550636805721</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>0.082x</t>
+          <t>0.013x</t>
         </is>
       </c>
     </row>
@@ -1285,37 +1285,37 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E17" t="n">
-        <v>0.005005255909435138</v>
+        <v>0.005714316625944758</v>
       </c>
       <c r="F17" t="n">
-        <v>0.003268379909998001</v>
+        <v>0.006886832588299329</v>
       </c>
       <c r="G17" t="n">
-        <v>0.004258379460686024</v>
+        <v>0.004041263951423072</v>
       </c>
       <c r="H17" t="n">
-        <v>0.00022294887039239</v>
+        <v>0.0003618693134822167</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0106633829385873</v>
+        <v>0.009676759149110353</v>
       </c>
       <c r="J17" t="n">
-        <v>0.3976093225835269</v>
+        <v>2.906695861980958</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>0.398x</t>
+          <t>2.907x</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>0.03260305789783779</v>
+        <v>0.03722171237060268</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>0.033x</t>
+          <t>0.037x</t>
         </is>
       </c>
     </row>
@@ -1336,37 +1336,37 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="E18" t="n">
-        <v>0.004999047880297857</v>
+        <v>0.002986583860895246</v>
       </c>
       <c r="F18" t="n">
-        <v>0.001179937580099625</v>
+        <v>0.001203791263138444</v>
       </c>
       <c r="G18" t="n">
-        <v>0.01401520838513291</v>
+        <v>0.003485569988878292</v>
       </c>
       <c r="H18" t="n">
-        <v>3.987240829346092e-05</v>
+        <v>8.38635049161365e-05</v>
       </c>
       <c r="I18" t="n">
-        <v>0.08418846937176876</v>
+        <v>0.009676759149110353</v>
       </c>
       <c r="J18" t="n">
-        <v>0.9987596979555874</v>
+        <v>0.5226493483639382</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>0.999x</t>
+          <t>0.523x</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>0.032562620258473</v>
+        <v>0.01945390371548543</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>0.033x</t>
+          <t>0.019x</t>
         </is>
       </c>
     </row>
@@ -1405,11 +1405,11 @@
         <v>0.0001720323163889472</v>
       </c>
       <c r="J19" t="n">
-        <v>0.02000609666461121</v>
+        <v>0.03348690001099775</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>0.020x</t>
+          <t>0.033x</t>
         </is>
       </c>
       <c r="L19" t="n">
@@ -1847,37 +1847,37 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E28" t="n">
-        <v>0.01625817947841239</v>
+        <v>0.006974122396963326</v>
       </c>
       <c r="F28" t="n">
-        <v>0.004298550025686457</v>
+        <v>0.001043260971419647</v>
       </c>
       <c r="G28" t="n">
-        <v>0.02726538301502708</v>
+        <v>0.0103715879090439</v>
       </c>
       <c r="H28" t="n">
-        <v>0.0003562753036437247</v>
+        <v>0.0009290870941356379</v>
       </c>
       <c r="I28" t="n">
-        <v>0.08314557210031348</v>
+        <v>0.01895001912533469</v>
       </c>
       <c r="J28" t="n">
-        <v>1.233800889864132</v>
+        <v>0.5292522714994019</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>1.234x</t>
+          <t>0.529x</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>0.1053267686762646</v>
+        <v>0.04518105962603398</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>0.105x</t>
+          <t>0.045x</t>
         </is>
       </c>
     </row>
@@ -1899,37 +1899,37 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E29" t="n">
-        <v>0.004721832180558065</v>
+        <v>0.006510989066294701</v>
       </c>
       <c r="F29" t="n">
-        <v>0.001150685819553015</v>
+        <v>0.005906672137289037</v>
       </c>
       <c r="G29" t="n">
-        <v>0.005834736116408496</v>
+        <v>0.006451943322515748</v>
       </c>
       <c r="H29" t="n">
-        <v>3.429982621421385e-05</v>
+        <v>0.0001725524722557364</v>
       </c>
       <c r="I29" t="n">
         <v>0.01355135411343894</v>
       </c>
       <c r="J29" t="n">
-        <v>0.2904281003188403</v>
+        <v>0.9335926007162876</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>0.290x</t>
+          <t>0.934x</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>0.03058985333936947</v>
+        <v>0.04218070295938672</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>0.031x</t>
+          <t>0.042x</t>
         </is>
       </c>
     </row>
@@ -1950,37 +1950,37 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="E30" t="n">
-        <v>0.00591384990591946</v>
+        <v>0.004697381448048906</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0009507740613364985</v>
+        <v>0.001272563071040687</v>
       </c>
       <c r="G30" t="n">
-        <v>0.01480025178470608</v>
+        <v>0.006209460863732814</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0.08314557210031348</v>
+        <v>0.01895001912533469</v>
       </c>
       <c r="J30" t="n">
-        <v>1.252448134490987</v>
+        <v>0.7214543597324931</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>1.252x</t>
+          <t>0.721x</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>0.0383122047492462</v>
+        <v>0.03043145204663082</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>0.038x</t>
+          <t>0.030x</t>
         </is>
       </c>
     </row>
@@ -2019,11 +2019,11 @@
         <v>1.701669145658016e-05</v>
       </c>
       <c r="J31" t="n">
-        <v>0.002301133131919166</v>
+        <v>0.002897051496927236</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>0.002x</t>
+          <t>0.003x</t>
         </is>
       </c>
       <c r="L31" t="n">
@@ -2461,37 +2461,37 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E40" t="n">
-        <v>0.001386117282538452</v>
+        <v>0.0001896700925827139</v>
       </c>
       <c r="F40" t="n">
-        <v>6.129253702069236e-05</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.002460546581777722</v>
+        <v>0.0003285182370295535</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0.006841039707419018</v>
+        <v>0.0005690102777481419</v>
       </c>
       <c r="J40" t="n">
-        <v>0.5015903178797193</v>
+        <v>0.06863537683954972</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>0.502x</t>
+          <t>0.069x</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>0.01165070560014776</v>
+        <v>0.001594230472176995</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>0.012x</t>
+          <t>0.002x</t>
         </is>
       </c>
     </row>
@@ -2513,37 +2513,37 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E41" t="n">
-        <v>0.001611642991652269</v>
+        <v>0.001899085284935418</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0007941352839168697</v>
+        <v>0.001603394922581322</v>
       </c>
       <c r="G41" t="n">
-        <v>0.001660070829866103</v>
+        <v>0.001817288391338396</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2.717361767806872e-05</v>
       </c>
       <c r="I41" t="n">
         <v>0.004237778913302674</v>
       </c>
       <c r="J41" t="n">
-        <v>1.162703193990052</v>
+        <v>10.01257108633107</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>1.163x</t>
+          <t>10.013x</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>0.01354631261352959</v>
+        <v>0.01596234593066731</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>0.014x</t>
+          <t>0.016x</t>
         </is>
       </c>
     </row>
@@ -2564,37 +2564,37 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0007656085054922722</v>
+        <v>0.0007975681324907098</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.001605403777926199</v>
+        <v>0.001437604252366915</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0.006841039707419018</v>
+        <v>0.004237778913302674</v>
       </c>
       <c r="J42" t="n">
-        <v>0.4750484502199611</v>
+        <v>0.4199748893940973</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>0.475x</t>
+          <t>0.420x</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>0.006435154813252341</v>
+        <v>0.00670378446670232</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>0.006x</t>
+          <t>0.007x</t>
         </is>
       </c>
     </row>
@@ -2633,7 +2633,7 @@
         <v>1.8798567824958e-08</v>
       </c>
       <c r="J43" t="n">
-        <v>1.595328258577645e-05</v>
+        <v>1.531401311139329e-05</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -3073,37 +3073,37 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E52" t="n">
-        <v>0.006152240380529153</v>
+        <v>0.001016998428862044</v>
       </c>
       <c r="F52" t="n">
-        <v>0.001838056680161943</v>
+        <v>0.0008090614886731392</v>
       </c>
       <c r="G52" t="n">
-        <v>0.01251316317532852</v>
+        <v>0.0008922915950490949</v>
       </c>
       <c r="H52" t="n">
-        <v>7.355104442483083e-05</v>
+        <v>0.0002470355731225296</v>
       </c>
       <c r="I52" t="n">
-        <v>0.03885320382265393</v>
+        <v>0.001994898224790463</v>
       </c>
       <c r="J52" t="n">
-        <v>0.3354479677307828</v>
+        <v>0.05545135349828925</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>0.335x</t>
+          <t>0.055x</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>0.04308240892252662</v>
+        <v>0.007121753942591101</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>0.043x</t>
+          <t>0.007x</t>
         </is>
       </c>
     </row>
@@ -3125,37 +3125,37 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E53" t="n">
-        <v>0.00368301693479355</v>
+        <v>0.004066272494482025</v>
       </c>
       <c r="F53" t="n">
-        <v>0.003160334293138563</v>
+        <v>0.004746230806991261</v>
       </c>
       <c r="G53" t="n">
-        <v>0.003160430673269063</v>
+        <v>0.003102102291150781</v>
       </c>
       <c r="H53" t="n">
-        <v>0.0001886490441781762</v>
+        <v>0.0002326302729528536</v>
       </c>
       <c r="I53" t="n">
-        <v>0.007660867742611612</v>
+        <v>0.007119741100323625</v>
       </c>
       <c r="J53" t="n">
-        <v>0.5986464616125378</v>
+        <v>3.998307548057792</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>0.599x</t>
+          <t>3.998x</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>0.02579113165921499</v>
+        <v>0.02847496254407234</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>0.026x</t>
+          <t>0.028x</t>
         </is>
       </c>
     </row>
@@ -3176,37 +3176,37 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="E54" t="n">
-        <v>0.002765393862276335</v>
+        <v>0.002000508003911323</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0005636751965964413</v>
+        <v>0.0005698228764310819</v>
       </c>
       <c r="G54" t="n">
-        <v>0.00665102643581432</v>
+        <v>0.002591057975854067</v>
       </c>
       <c r="H54" t="n">
-        <v>1.277770205806188e-05</v>
+        <v>4.048582995951417e-05</v>
       </c>
       <c r="I54" t="n">
-        <v>0.03885320382265393</v>
+        <v>0.007119741100323625</v>
       </c>
       <c r="J54" t="n">
-        <v>0.7508501620374298</v>
+        <v>0.4919758837180819</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>0.751x</t>
+          <t>0.492x</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>0.01936527538545026</v>
+        <v>0.01400899486145927</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>0.019x</t>
+          <t>0.014x</t>
         </is>
       </c>
     </row>
@@ -3245,11 +3245,11 @@
         <v>3.359567535096329e-05</v>
       </c>
       <c r="J55" t="n">
-        <v>0.006007403039282341</v>
+        <v>0.008304308435942646</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>0.006x</t>
+          <t>0.008x</t>
         </is>
       </c>
       <c r="L55" t="n">
@@ -3687,37 +3687,37 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E64" t="n">
-        <v>0.01615098859942517</v>
+        <v>0.006839099823063106</v>
       </c>
       <c r="F64" t="n">
-        <v>0.003805789412985815</v>
+        <v>0.0009246417013407304</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02731048436728825</v>
+        <v>0.01025142135592126</v>
       </c>
       <c r="H64" t="n">
-        <v>0.0002995951417004049</v>
+        <v>0.0009162371804883127</v>
       </c>
       <c r="I64" t="n">
-        <v>0.08314557210031348</v>
+        <v>0.01867642058736028</v>
       </c>
       <c r="J64" t="n">
-        <v>1.252752532489976</v>
+        <v>0.5304752443202754</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>1.253x</t>
+          <t>0.530x</t>
         </is>
       </c>
       <c r="L64" t="n">
-        <v>0.1048660333301344</v>
+        <v>0.04440528612712769</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>0.105x</t>
+          <t>0.044x</t>
         </is>
       </c>
     </row>
@@ -3739,37 +3739,37 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E65" t="n">
-        <v>0.004587513706727732</v>
+        <v>0.00631716992090469</v>
       </c>
       <c r="F65" t="n">
-        <v>0.001069651606908437</v>
+        <v>0.005880460248546797</v>
       </c>
       <c r="G65" t="n">
-        <v>0.005646473052223388</v>
+        <v>0.006238323842731126</v>
       </c>
       <c r="H65" t="n">
-        <v>3.429982621421385e-05</v>
+        <v>0.0001725524722557364</v>
       </c>
       <c r="I65" t="n">
         <v>0.01350366206779084</v>
       </c>
       <c r="J65" t="n">
-        <v>0.2840391892104366</v>
+        <v>0.9236844152503314</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>0.284x</t>
+          <t>0.924x</t>
         </is>
       </c>
       <c r="L65" t="n">
-        <v>0.02978606308280601</v>
+        <v>0.04101647075035959</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>0.030x</t>
+          <t>0.041x</t>
         </is>
       </c>
     </row>
@@ -3790,37 +3790,37 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="E66" t="n">
-        <v>0.005697789918279339</v>
+        <v>0.004408986963751724</v>
       </c>
       <c r="F66" t="n">
-        <v>0.0009446448076344293</v>
+        <v>0.001225648303444717</v>
       </c>
       <c r="G66" t="n">
-        <v>0.01478648940910542</v>
+        <v>0.006056380445464147</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>0.08314557210031348</v>
+        <v>0.01867642058736028</v>
       </c>
       <c r="J66" t="n">
-        <v>1.242021339341908</v>
+        <v>0.6979370539268804</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>1.242x</t>
+          <t>0.698x</t>
         </is>
       </c>
       <c r="L66" t="n">
-        <v>0.03699492596382928</v>
+        <v>0.02862691475798404</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>0.037x</t>
+          <t>0.029x</t>
         </is>
       </c>
     </row>
@@ -3859,11 +3859,11 @@
         <v>9.542409372055383e-06</v>
       </c>
       <c r="J67" t="n">
-        <v>0.001215212810687594</v>
+        <v>0.0015704349679927</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>0.001x</t>
+          <t>0.002x</t>
         </is>
       </c>
       <c r="L67" t="n">
